--- a/Code/Results/Cases/Case_5_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_158/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.28837722086066</v>
+        <v>14.95913233839191</v>
       </c>
       <c r="C2">
-        <v>5.577252384149104</v>
+        <v>7.017072097323165</v>
       </c>
       <c r="D2">
-        <v>5.193599710967898</v>
+        <v>4.332044269402864</v>
       </c>
       <c r="E2">
-        <v>5.387499095565334</v>
+        <v>10.97399696776474</v>
       </c>
       <c r="F2">
-        <v>67.45486563596451</v>
+        <v>62.91472073251706</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.213188945407338</v>
+        <v>10.79928908514583</v>
       </c>
       <c r="K2">
-        <v>10.3442690470401</v>
+        <v>14.64954740462116</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>9.785430458520736</v>
+        <v>17.18926605683532</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.6371647766333</v>
+        <v>14.91463669885406</v>
       </c>
       <c r="C3">
-        <v>5.140087960449217</v>
+        <v>7.031843805192101</v>
       </c>
       <c r="D3">
-        <v>4.930174894709233</v>
+        <v>4.328982487646406</v>
       </c>
       <c r="E3">
-        <v>5.418219995112229</v>
+        <v>11.02401195914878</v>
       </c>
       <c r="F3">
-        <v>64.39025144261348</v>
+        <v>61.96255502277742</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.126802433056151</v>
+        <v>10.79514011089733</v>
       </c>
       <c r="K3">
-        <v>9.89776828916705</v>
+        <v>14.65813803374158</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.615917744809208</v>
+        <v>17.24774409712304</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.23405426618181</v>
+        <v>14.89297276187163</v>
       </c>
       <c r="C4">
-        <v>4.861458064959007</v>
+        <v>7.044718253212088</v>
       </c>
       <c r="D4">
-        <v>4.76322149403755</v>
+        <v>4.329218401015022</v>
       </c>
       <c r="E4">
-        <v>5.442454277111918</v>
+        <v>11.05697670231988</v>
       </c>
       <c r="F4">
-        <v>62.46661988870844</v>
+        <v>61.3732326644574</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.075784910188726</v>
+        <v>10.79347060735602</v>
       </c>
       <c r="K4">
-        <v>9.627445170994758</v>
+        <v>14.66854854221333</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>9.522097408858569</v>
+        <v>17.28810834004006</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.06916508176206</v>
+        <v>14.88557416781955</v>
       </c>
       <c r="C5">
-        <v>4.745295124344429</v>
+        <v>7.050915421565786</v>
       </c>
       <c r="D5">
-        <v>4.693864003503628</v>
+        <v>4.329843502724875</v>
       </c>
       <c r="E5">
-        <v>5.453627395096769</v>
+        <v>11.07097758293293</v>
       </c>
       <c r="F5">
-        <v>61.67268584731461</v>
+        <v>61.13209582510508</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.055491623217735</v>
+        <v>10.79301135629655</v>
       </c>
       <c r="K5">
-        <v>9.518384680554091</v>
+        <v>14.67408013766446</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>9.486401335440995</v>
+        <v>17.30567587184844</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.04175478023689</v>
+        <v>14.88443215478903</v>
       </c>
       <c r="C6">
-        <v>4.725846940820333</v>
+        <v>7.052001686969665</v>
       </c>
       <c r="D6">
-        <v>4.682267138605551</v>
+        <v>4.329979144673646</v>
       </c>
       <c r="E6">
-        <v>5.45555953900471</v>
+        <v>11.07333670371981</v>
       </c>
       <c r="F6">
-        <v>61.54026486317866</v>
+        <v>61.09200161527794</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.05215159758823</v>
+        <v>10.79294845908231</v>
       </c>
       <c r="K6">
-        <v>9.500345912420991</v>
+        <v>14.67507643789968</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9.480625852136237</v>
+        <v>17.30866044715385</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.23183271704516</v>
+        <v>14.89286718532389</v>
       </c>
       <c r="C7">
-        <v>4.859902113203228</v>
+        <v>7.044797989513117</v>
       </c>
       <c r="D7">
-        <v>4.76229148115064</v>
+        <v>4.329224694202368</v>
       </c>
       <c r="E7">
-        <v>5.44259977678533</v>
+        <v>11.05716322492073</v>
       </c>
       <c r="F7">
-        <v>62.4559524924715</v>
+        <v>61.36998432966059</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.075509232060849</v>
+        <v>10.79346351819122</v>
       </c>
       <c r="K7">
-        <v>9.625969703533965</v>
+        <v>14.66861792690259</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>9.521605790315672</v>
+        <v>17.28834073529964</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.06462389983752</v>
+        <v>14.94262119339596</v>
       </c>
       <c r="C8">
-        <v>5.428601365135217</v>
+        <v>7.021372430197369</v>
       </c>
       <c r="D8">
-        <v>5.103842025139939</v>
+        <v>4.330547781455425</v>
       </c>
       <c r="E8">
-        <v>5.396943914118415</v>
+        <v>10.9907742537397</v>
       </c>
       <c r="F8">
-        <v>66.40715616134322</v>
+        <v>62.58750389088479</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.182975127039605</v>
+        <v>10.79767648985795</v>
       </c>
       <c r="K8">
-        <v>10.18959554140321</v>
+        <v>14.6514424606184</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>9.724827687829423</v>
+        <v>17.20850255171219</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.69927063010366</v>
+        <v>15.08465530129254</v>
       </c>
       <c r="C9">
-        <v>6.46590261875314</v>
+        <v>7.005844693441661</v>
       </c>
       <c r="D9">
-        <v>5.733287220731299</v>
+        <v>4.350033520420967</v>
       </c>
       <c r="E9">
-        <v>5.352569659500162</v>
+        <v>10.87846527384856</v>
       </c>
       <c r="F9">
-        <v>73.80747633683499</v>
+        <v>64.92940524728276</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.410393294106581</v>
+        <v>10.81289058735868</v>
       </c>
       <c r="K9">
-        <v>11.60710041454575</v>
+        <v>14.65856863088584</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>10.20658705477782</v>
+        <v>17.08741666968587</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.09326328196184</v>
+        <v>15.2154216527304</v>
       </c>
       <c r="C10">
-        <v>7.185869104373952</v>
+        <v>7.013211513086044</v>
       </c>
       <c r="D10">
-        <v>6.173179184264512</v>
+        <v>4.374735681076705</v>
       </c>
       <c r="E10">
-        <v>5.351229964712212</v>
+        <v>10.80683127301626</v>
       </c>
       <c r="F10">
-        <v>79.02253520094065</v>
+        <v>66.61115317576689</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.588645366004257</v>
+        <v>10.82828760090488</v>
       </c>
       <c r="K10">
-        <v>12.80887509619011</v>
+        <v>14.68869659533474</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>10.6671925343157</v>
+        <v>17.02021264222937</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.70771147978162</v>
+        <v>15.28045771360501</v>
       </c>
       <c r="C11">
-        <v>7.505742041733877</v>
+        <v>7.020668535059809</v>
       </c>
       <c r="D11">
-        <v>6.369028531013369</v>
+        <v>4.388231212685513</v>
       </c>
       <c r="E11">
-        <v>5.358296765952498</v>
+        <v>10.77660156328593</v>
       </c>
       <c r="F11">
-        <v>81.34769408178913</v>
+        <v>67.36555461684833</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.672433494688316</v>
+        <v>10.83620324420451</v>
       </c>
       <c r="K11">
-        <v>13.33757592281824</v>
+        <v>14.70778971111341</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>11.09666444162886</v>
+        <v>16.99438911633913</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.93774113064137</v>
+        <v>15.30586463591695</v>
       </c>
       <c r="C12">
-        <v>7.625918519186377</v>
+        <v>7.024083403255556</v>
       </c>
       <c r="D12">
-        <v>6.442644755986674</v>
+        <v>4.393665349359692</v>
       </c>
       <c r="E12">
-        <v>5.362156670475681</v>
+        <v>10.76549305600936</v>
       </c>
       <c r="F12">
-        <v>82.22164829158906</v>
+        <v>67.64951859093711</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.704577418194718</v>
+        <v>10.83933119295665</v>
       </c>
       <c r="K12">
-        <v>13.53539006388535</v>
+        <v>14.71579127784135</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>11.25731333183144</v>
+        <v>16.98529491896504</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.88831465444557</v>
+        <v>15.30035846457877</v>
       </c>
       <c r="C13">
-        <v>7.600076149790053</v>
+        <v>7.023321664539921</v>
       </c>
       <c r="D13">
-        <v>6.426813380093953</v>
+        <v>4.392480640949487</v>
       </c>
       <c r="E13">
-        <v>5.361271378832392</v>
+        <v>10.76787040371465</v>
       </c>
       <c r="F13">
-        <v>82.03371146577754</v>
+        <v>67.58844081170034</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.697635701948823</v>
+        <v>10.83865174085592</v>
       </c>
       <c r="K13">
-        <v>13.4928903350451</v>
+        <v>14.71403375253758</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>11.22280014062652</v>
+        <v>16.98722304109123</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.72668807225775</v>
+        <v>15.28253245452269</v>
       </c>
       <c r="C14">
-        <v>7.515647201851403</v>
+        <v>7.02093763296531</v>
       </c>
       <c r="D14">
-        <v>6.375095543726728</v>
+        <v>4.38867180449172</v>
       </c>
       <c r="E14">
-        <v>5.358590116236059</v>
+        <v>10.7756808695923</v>
       </c>
       <c r="F14">
-        <v>81.41972374344159</v>
+        <v>67.38895182275677</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.675069502014923</v>
+        <v>10.83645797132671</v>
       </c>
       <c r="K14">
-        <v>13.35389697716679</v>
+        <v>14.70843256730385</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>11.10991987256172</v>
+        <v>16.99362720060026</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.627348197722</v>
+        <v>15.2717143919854</v>
       </c>
       <c r="C15">
-        <v>7.463812727245609</v>
+        <v>7.019554317757096</v>
       </c>
       <c r="D15">
-        <v>6.343347683037661</v>
+        <v>4.386380888333656</v>
       </c>
       <c r="E15">
-        <v>5.357104417376987</v>
+        <v>10.78050912823074</v>
       </c>
       <c r="F15">
-        <v>81.04279793170178</v>
+        <v>67.26653088548144</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.661302003934063</v>
+        <v>10.83513119595061</v>
       </c>
       <c r="K15">
-        <v>13.26845402800171</v>
+        <v>14.70510202406604</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>11.04052432099899</v>
+        <v>16.99763914199302</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.05272632778695</v>
+        <v>15.21128149402546</v>
       </c>
       <c r="C16">
-        <v>7.164822889674129</v>
+        <v>7.012806879251306</v>
       </c>
       <c r="D16">
-        <v>6.160299528276135</v>
+        <v>4.373899086362892</v>
       </c>
       <c r="E16">
-        <v>5.350929304093055</v>
+        <v>10.80885427462618</v>
       </c>
       <c r="F16">
-        <v>78.86964906484859</v>
+        <v>66.5616215333402</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.583226139486392</v>
+        <v>10.82778858587443</v>
       </c>
       <c r="K16">
-        <v>12.77397721320386</v>
+        <v>14.6875569697854</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>10.63883890537249</v>
+        <v>17.02199597449393</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.69529150845349</v>
+        <v>15.17561641167643</v>
       </c>
       <c r="C17">
-        <v>6.979542207804328</v>
+        <v>7.009719954755139</v>
       </c>
       <c r="D17">
-        <v>6.046956866530988</v>
+        <v>4.366819813076643</v>
       </c>
       <c r="E17">
-        <v>5.349162240088922</v>
+        <v>10.8268466992878</v>
       </c>
       <c r="F17">
-        <v>77.52453650675224</v>
+        <v>66.12632684969367</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.536038379549931</v>
+        <v>10.82351717019872</v>
       </c>
       <c r="K17">
-        <v>12.46615372058838</v>
+        <v>14.67817154339732</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>10.49165416868592</v>
+        <v>17.03815554583895</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.487838610233</v>
+        <v>15.15562641345305</v>
       </c>
       <c r="C18">
-        <v>6.872244206824608</v>
+        <v>7.008330928580826</v>
       </c>
       <c r="D18">
-        <v>5.981359652935941</v>
+        <v>4.362960688275034</v>
       </c>
       <c r="E18">
-        <v>5.348863272786697</v>
+        <v>10.83741731868932</v>
       </c>
       <c r="F18">
-        <v>76.74639633164784</v>
+        <v>65.87496639413203</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.509149530378761</v>
+        <v>10.82114619572299</v>
       </c>
       <c r="K18">
-        <v>12.28739526574291</v>
+        <v>14.67328068228145</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>10.42980071977343</v>
+        <v>17.04789690101494</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.41727315427894</v>
+        <v>15.14894862210561</v>
       </c>
       <c r="C19">
-        <v>6.835785546361485</v>
+        <v>7.007926970480566</v>
       </c>
       <c r="D19">
-        <v>5.959078130979636</v>
+        <v>4.361690604066507</v>
       </c>
       <c r="E19">
-        <v>5.348882919019835</v>
+        <v>10.841034455544</v>
       </c>
       <c r="F19">
-        <v>76.48215898877967</v>
+        <v>65.78969562136862</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.500088020236563</v>
+        <v>10.82035818344391</v>
       </c>
       <c r="K19">
-        <v>12.22657211592575</v>
+        <v>14.67171194932359</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>10.40905324200981</v>
+        <v>17.05127183437351</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.7335329494623</v>
+        <v>15.17935896008617</v>
       </c>
       <c r="C20">
-        <v>6.999340155421287</v>
+        <v>7.010008554676035</v>
       </c>
       <c r="D20">
-        <v>6.059063923065882</v>
+        <v>4.367551406989032</v>
       </c>
       <c r="E20">
-        <v>5.349275537956071</v>
+        <v>10.82490841491745</v>
       </c>
       <c r="F20">
-        <v>77.66818700218143</v>
+        <v>66.17276856505609</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.541035305665423</v>
+        <v>10.82396299069702</v>
       </c>
       <c r="K20">
-        <v>12.49909734941384</v>
+        <v>14.67911814628829</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>10.50319489243286</v>
+        <v>17.03638907611009</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.77423197517072</v>
+        <v>15.28774739776668</v>
       </c>
       <c r="C21">
-        <v>7.540470600010369</v>
+        <v>7.02162184014426</v>
       </c>
       <c r="D21">
-        <v>6.390300612615316</v>
+        <v>4.389781780227185</v>
       </c>
       <c r="E21">
-        <v>5.359344870429316</v>
+        <v>10.77337755143866</v>
       </c>
       <c r="F21">
-        <v>81.60024132852935</v>
+        <v>67.4475944402047</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.681686235019929</v>
+        <v>10.83709879885744</v>
       </c>
       <c r="K21">
-        <v>13.39478597995261</v>
+        <v>14.71005686691027</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>11.14312798097912</v>
+        <v>16.99172754961661</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.43906097765486</v>
+        <v>15.3631172553642</v>
       </c>
       <c r="C22">
-        <v>7.888663717618225</v>
+        <v>7.032656428260353</v>
       </c>
       <c r="D22">
-        <v>6.603629726827625</v>
+        <v>4.406196171289725</v>
       </c>
       <c r="E22">
-        <v>5.372867887960616</v>
+        <v>10.74167406913028</v>
       </c>
       <c r="F22">
-        <v>84.13221742420052</v>
+        <v>68.27071173082427</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.776046024727772</v>
+        <v>10.84644394948249</v>
       </c>
       <c r="K22">
-        <v>13.96632883404553</v>
+        <v>14.73477123625361</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>11.60721929125915</v>
+        <v>16.96652983068754</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.08556241456549</v>
+        <v>15.32248294572302</v>
       </c>
       <c r="C23">
-        <v>7.703272267336608</v>
+        <v>7.026451952569928</v>
       </c>
       <c r="D23">
-        <v>6.490035831300663</v>
+        <v>4.397263531778823</v>
       </c>
       <c r="E23">
-        <v>5.364987121495838</v>
+        <v>10.75841413685057</v>
       </c>
       <c r="F23">
-        <v>82.78419248579463</v>
+        <v>67.83237690245794</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.725451266498206</v>
+        <v>10.84138692654826</v>
       </c>
       <c r="K23">
-        <v>13.66248125302015</v>
+        <v>14.72117087259008</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>11.36051611453943</v>
+        <v>16.97961256764845</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.71625010872905</v>
+        <v>15.17766535043624</v>
       </c>
       <c r="C24">
-        <v>6.990391936356064</v>
+        <v>7.009876877325054</v>
       </c>
       <c r="D24">
-        <v>6.053591682497935</v>
+        <v>4.367219996569795</v>
       </c>
       <c r="E24">
-        <v>5.349222088856677</v>
+        <v>10.82578400763698</v>
       </c>
       <c r="F24">
-        <v>77.60325763443264</v>
+        <v>66.15177568946852</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.538775449711209</v>
+        <v>10.82376117132661</v>
       </c>
       <c r="K24">
-        <v>12.4842091140883</v>
+        <v>14.67868861401263</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>10.49797385652916</v>
+        <v>17.03718629237492</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.23648483220284</v>
+        <v>15.04153471362989</v>
       </c>
       <c r="C25">
-        <v>6.193130974681992</v>
+        <v>7.006761384674559</v>
       </c>
       <c r="D25">
-        <v>5.567147536153754</v>
+        <v>4.342941603911302</v>
       </c>
       <c r="E25">
-        <v>5.359368746185204</v>
+        <v>10.90693588967875</v>
       </c>
       <c r="F25">
-        <v>71.84428856709604</v>
+        <v>64.30190186393243</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.346990067641578</v>
+        <v>10.80803222904908</v>
       </c>
       <c r="K25">
-        <v>11.14742074172053</v>
+        <v>14.65226651243993</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>10.06708895937734</v>
+        <v>17.11636152672905</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_158/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.95913233839191</v>
+        <v>12.28837722086065</v>
       </c>
       <c r="C2">
-        <v>7.017072097323165</v>
+        <v>5.577252384148978</v>
       </c>
       <c r="D2">
-        <v>4.332044269402864</v>
+        <v>5.19359971096803</v>
       </c>
       <c r="E2">
-        <v>10.97399696776474</v>
+        <v>5.387499095565293</v>
       </c>
       <c r="F2">
-        <v>62.91472073251706</v>
+        <v>67.45486563596465</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.79928908514583</v>
+        <v>7.213188945407401</v>
       </c>
       <c r="K2">
-        <v>14.64954740462116</v>
+        <v>10.34426904704008</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.18926605683532</v>
+        <v>9.785430458520699</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.91463669885406</v>
+        <v>11.63716477663334</v>
       </c>
       <c r="C3">
-        <v>7.031843805192101</v>
+        <v>5.140087960449216</v>
       </c>
       <c r="D3">
-        <v>4.328982487646406</v>
+        <v>4.930174894709232</v>
       </c>
       <c r="E3">
-        <v>11.02401195914878</v>
+        <v>5.418219995112162</v>
       </c>
       <c r="F3">
-        <v>61.96255502277742</v>
+        <v>64.39025144261346</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.79514011089733</v>
+        <v>7.126802433056175</v>
       </c>
       <c r="K3">
-        <v>14.65813803374158</v>
+        <v>9.897768289167107</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.24774409712304</v>
+        <v>9.615917744809233</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.89297276187163</v>
+        <v>11.23405426618183</v>
       </c>
       <c r="C4">
-        <v>7.044718253212088</v>
+        <v>4.861458064959127</v>
       </c>
       <c r="D4">
-        <v>4.329218401015022</v>
+        <v>4.763221494037512</v>
       </c>
       <c r="E4">
-        <v>11.05697670231988</v>
+        <v>5.442454277111969</v>
       </c>
       <c r="F4">
-        <v>61.3732326644574</v>
+        <v>62.46661988870817</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.79347060735602</v>
+        <v>7.075784910188797</v>
       </c>
       <c r="K4">
-        <v>14.66854854221333</v>
+        <v>9.627445170994802</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.28810834004006</v>
+        <v>9.522097408858622</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.88557416781955</v>
+        <v>11.06916508176207</v>
       </c>
       <c r="C5">
-        <v>7.050915421565786</v>
+        <v>4.745295124344556</v>
       </c>
       <c r="D5">
-        <v>4.329843502724875</v>
+        <v>4.693864003503808</v>
       </c>
       <c r="E5">
-        <v>11.07097758293293</v>
+        <v>5.453627395096601</v>
       </c>
       <c r="F5">
-        <v>61.13209582510508</v>
+        <v>61.67268584731447</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.79301135629655</v>
+        <v>7.055491623217669</v>
       </c>
       <c r="K5">
-        <v>14.67408013766446</v>
+        <v>9.51838468055406</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.30567587184844</v>
+        <v>9.486401335440869</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.88443215478903</v>
+        <v>11.04175478023689</v>
       </c>
       <c r="C6">
-        <v>7.052001686969665</v>
+        <v>4.725846940820406</v>
       </c>
       <c r="D6">
-        <v>4.329979144673646</v>
+        <v>4.682267138605487</v>
       </c>
       <c r="E6">
-        <v>11.07333670371981</v>
+        <v>5.455559539004564</v>
       </c>
       <c r="F6">
-        <v>61.09200161527794</v>
+        <v>61.54026486317834</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.79294845908231</v>
+        <v>7.052151597588143</v>
       </c>
       <c r="K6">
-        <v>14.67507643789968</v>
+        <v>9.500345912421006</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.30866044715385</v>
+        <v>9.480625852136214</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.89286718532389</v>
+        <v>11.23183271704522</v>
       </c>
       <c r="C7">
-        <v>7.044797989513117</v>
+        <v>4.859902113203169</v>
       </c>
       <c r="D7">
-        <v>4.329224694202368</v>
+        <v>4.762291481150784</v>
       </c>
       <c r="E7">
-        <v>11.05716322492073</v>
+        <v>5.442599776785278</v>
       </c>
       <c r="F7">
-        <v>61.36998432966059</v>
+        <v>62.45595249247153</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.79346351819122</v>
+        <v>7.075509232060917</v>
       </c>
       <c r="K7">
-        <v>14.66861792690259</v>
+        <v>9.625969703534027</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.28834073529964</v>
+        <v>9.521605790315711</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.94262119339596</v>
+        <v>12.06462389983754</v>
       </c>
       <c r="C8">
-        <v>7.021372430197369</v>
+        <v>5.428601365135224</v>
       </c>
       <c r="D8">
-        <v>4.330547781455425</v>
+        <v>5.103842025140018</v>
       </c>
       <c r="E8">
-        <v>10.9907742537397</v>
+        <v>5.396943914118354</v>
       </c>
       <c r="F8">
-        <v>62.58750389088479</v>
+        <v>66.40715616134347</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.79767648985795</v>
+        <v>7.18297512703964</v>
       </c>
       <c r="K8">
-        <v>14.6514424606184</v>
+        <v>10.18959554140318</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.20850255171219</v>
+        <v>9.724827687829366</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.08465530129254</v>
+        <v>13.69927063010367</v>
       </c>
       <c r="C9">
-        <v>7.005844693441661</v>
+        <v>6.465902618753128</v>
       </c>
       <c r="D9">
-        <v>4.350033520420967</v>
+        <v>5.733287220731406</v>
       </c>
       <c r="E9">
-        <v>10.87846527384856</v>
+        <v>5.35256965950012</v>
       </c>
       <c r="F9">
-        <v>64.92940524728276</v>
+        <v>73.80747633683501</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.81289058735868</v>
+        <v>7.410393294106631</v>
       </c>
       <c r="K9">
-        <v>14.65856863088584</v>
+        <v>11.60710041454575</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.08741666968587</v>
+        <v>10.20658705477779</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.2154216527304</v>
+        <v>15.09326328196183</v>
       </c>
       <c r="C10">
-        <v>7.013211513086044</v>
+        <v>7.185869104374103</v>
       </c>
       <c r="D10">
-        <v>4.374735681076705</v>
+        <v>6.173179184264634</v>
       </c>
       <c r="E10">
-        <v>10.80683127301626</v>
+        <v>5.351229964712176</v>
       </c>
       <c r="F10">
-        <v>66.61115317576689</v>
+        <v>79.02253520094121</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.82828760090488</v>
+        <v>7.588645366004265</v>
       </c>
       <c r="K10">
-        <v>14.68869659533474</v>
+        <v>12.80887509619017</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.02021264222937</v>
+        <v>10.66719253431571</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.28045771360501</v>
+        <v>15.70771147978164</v>
       </c>
       <c r="C11">
-        <v>7.020668535059809</v>
+        <v>7.505742041733708</v>
       </c>
       <c r="D11">
-        <v>4.388231212685513</v>
+        <v>6.369028531013465</v>
       </c>
       <c r="E11">
-        <v>10.77660156328593</v>
+        <v>5.358296765952432</v>
       </c>
       <c r="F11">
-        <v>67.36555461684833</v>
+        <v>81.34769408178909</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.83620324420451</v>
+        <v>7.672433494688331</v>
       </c>
       <c r="K11">
-        <v>14.70778971111341</v>
+        <v>13.33757592281823</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.99438911633913</v>
+        <v>11.0966644416289</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.30586463591695</v>
+        <v>15.93774113064134</v>
       </c>
       <c r="C12">
-        <v>7.024083403255556</v>
+        <v>7.625918519186489</v>
       </c>
       <c r="D12">
-        <v>4.393665349359692</v>
+        <v>6.442644755986759</v>
       </c>
       <c r="E12">
-        <v>10.76549305600936</v>
+        <v>5.362156670475667</v>
       </c>
       <c r="F12">
-        <v>67.64951859093711</v>
+        <v>82.2216482915895</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.83933119295665</v>
+        <v>7.70457741819472</v>
       </c>
       <c r="K12">
-        <v>14.71579127784135</v>
+        <v>13.53539006388541</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.98529491896504</v>
+        <v>11.2573133318315</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.30035846457877</v>
+        <v>15.88831465444563</v>
       </c>
       <c r="C13">
-        <v>7.023321664539921</v>
+        <v>7.600076149790137</v>
       </c>
       <c r="D13">
-        <v>4.392480640949487</v>
+        <v>6.426813380093859</v>
       </c>
       <c r="E13">
-        <v>10.76787040371465</v>
+        <v>5.361271378832429</v>
       </c>
       <c r="F13">
-        <v>67.58844081170034</v>
+        <v>82.03371146577753</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.83865174085592</v>
+        <v>7.697635701948835</v>
       </c>
       <c r="K13">
-        <v>14.71403375253758</v>
+        <v>13.49289033504513</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.98722304109123</v>
+        <v>11.2228001406265</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.28253245452269</v>
+        <v>15.72668807225761</v>
       </c>
       <c r="C14">
-        <v>7.02093763296531</v>
+        <v>7.515647201851575</v>
       </c>
       <c r="D14">
-        <v>4.38867180449172</v>
+        <v>6.375095543726814</v>
       </c>
       <c r="E14">
-        <v>10.7756808695923</v>
+        <v>5.358590116236081</v>
       </c>
       <c r="F14">
-        <v>67.38895182275677</v>
+        <v>81.41972374344138</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.83645797132671</v>
+        <v>7.675069502014973</v>
       </c>
       <c r="K14">
-        <v>14.70843256730385</v>
+        <v>13.35389697716673</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.99362720060026</v>
+        <v>11.1099198725617</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.2717143919854</v>
+        <v>15.6273481977219</v>
       </c>
       <c r="C15">
-        <v>7.019554317757096</v>
+        <v>7.463812727245707</v>
       </c>
       <c r="D15">
-        <v>4.386380888333656</v>
+        <v>6.343347683037782</v>
       </c>
       <c r="E15">
-        <v>10.78050912823074</v>
+        <v>5.357104417376973</v>
       </c>
       <c r="F15">
-        <v>67.26653088548144</v>
+        <v>81.04279793170177</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.83513119595061</v>
+        <v>7.661302003934117</v>
       </c>
       <c r="K15">
-        <v>14.70510202406604</v>
+        <v>13.26845402800166</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.99763914199302</v>
+        <v>11.04052432099895</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.21128149402546</v>
+        <v>15.05272632778691</v>
       </c>
       <c r="C16">
-        <v>7.012806879251306</v>
+        <v>7.164822889674059</v>
       </c>
       <c r="D16">
-        <v>4.373899086362892</v>
+        <v>6.160299528276312</v>
       </c>
       <c r="E16">
-        <v>10.80885427462618</v>
+        <v>5.35092930409302</v>
       </c>
       <c r="F16">
-        <v>66.5616215333402</v>
+        <v>78.86964906484876</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.82778858587443</v>
+        <v>7.58322613948638</v>
       </c>
       <c r="K16">
-        <v>14.6875569697854</v>
+        <v>12.77397721320382</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.02199597449393</v>
+        <v>10.63883890537252</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.17561641167643</v>
+        <v>14.69529150845359</v>
       </c>
       <c r="C17">
-        <v>7.009719954755139</v>
+        <v>6.979542207804235</v>
       </c>
       <c r="D17">
-        <v>4.366819813076643</v>
+        <v>6.046956866531014</v>
       </c>
       <c r="E17">
-        <v>10.8268466992878</v>
+        <v>5.349162240088956</v>
       </c>
       <c r="F17">
-        <v>66.12632684969367</v>
+        <v>77.52453650675278</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.82351717019872</v>
+        <v>7.53603837954994</v>
       </c>
       <c r="K17">
-        <v>14.67817154339732</v>
+        <v>12.46615372058842</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.03815554583895</v>
+        <v>10.49165416868587</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.15562641345305</v>
+        <v>14.487838610233</v>
       </c>
       <c r="C18">
-        <v>7.008330928580826</v>
+        <v>6.872244206824425</v>
       </c>
       <c r="D18">
-        <v>4.362960688275034</v>
+        <v>5.981359652935798</v>
       </c>
       <c r="E18">
-        <v>10.83741731868932</v>
+        <v>5.34886327278662</v>
       </c>
       <c r="F18">
-        <v>65.87496639413203</v>
+        <v>76.74639633164736</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.82114619572299</v>
+        <v>7.509149530378709</v>
       </c>
       <c r="K18">
-        <v>14.67328068228145</v>
+        <v>12.28739526574288</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.04789690101494</v>
+        <v>10.42980071977349</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.14894862210561</v>
+        <v>14.41727315427901</v>
       </c>
       <c r="C19">
-        <v>7.007926970480566</v>
+        <v>6.835785546361473</v>
       </c>
       <c r="D19">
-        <v>4.361690604066507</v>
+        <v>5.959078130979675</v>
       </c>
       <c r="E19">
-        <v>10.841034455544</v>
+        <v>5.348882919019862</v>
       </c>
       <c r="F19">
-        <v>65.78969562136862</v>
+        <v>76.48215898877996</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.82035818344391</v>
+        <v>7.500088020236576</v>
       </c>
       <c r="K19">
-        <v>14.67171194932359</v>
+        <v>12.22657211592578</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.05127183437351</v>
+        <v>10.40905324200975</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.17935896008617</v>
+        <v>14.73353294946239</v>
       </c>
       <c r="C20">
-        <v>7.010008554676035</v>
+        <v>6.999340155421449</v>
       </c>
       <c r="D20">
-        <v>4.367551406989032</v>
+        <v>6.059063923065946</v>
       </c>
       <c r="E20">
-        <v>10.82490841491745</v>
+        <v>5.349275537956009</v>
       </c>
       <c r="F20">
-        <v>66.17276856505609</v>
+        <v>77.66818700218205</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.82396299069702</v>
+        <v>7.541035305665408</v>
       </c>
       <c r="K20">
-        <v>14.67911814628829</v>
+        <v>12.49909734941395</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.03638907611009</v>
+        <v>10.50319489243278</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.28774739776668</v>
+        <v>15.77423197517062</v>
       </c>
       <c r="C21">
-        <v>7.02162184014426</v>
+        <v>7.540470600010337</v>
       </c>
       <c r="D21">
-        <v>4.389781780227185</v>
+        <v>6.390300612615086</v>
       </c>
       <c r="E21">
-        <v>10.77337755143866</v>
+        <v>5.359344870429402</v>
       </c>
       <c r="F21">
-        <v>67.4475944402047</v>
+        <v>81.60024132852867</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.83709879885744</v>
+        <v>7.68168623501992</v>
       </c>
       <c r="K21">
-        <v>14.71005686691027</v>
+        <v>13.39478597995253</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.99172754961661</v>
+        <v>11.14312798097907</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.3631172553642</v>
+        <v>16.43906097765473</v>
       </c>
       <c r="C22">
-        <v>7.032656428260353</v>
+        <v>7.888663717618128</v>
       </c>
       <c r="D22">
-        <v>4.406196171289725</v>
+        <v>6.603629726827674</v>
       </c>
       <c r="E22">
-        <v>10.74167406913028</v>
+        <v>5.372867887960632</v>
       </c>
       <c r="F22">
-        <v>68.27071173082427</v>
+        <v>84.13221742419981</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.84644394948249</v>
+        <v>7.776046024727806</v>
       </c>
       <c r="K22">
-        <v>14.73477123625361</v>
+        <v>13.96632883404545</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.96652983068754</v>
+        <v>11.60721929125915</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.32248294572302</v>
+        <v>16.08556241456544</v>
       </c>
       <c r="C23">
-        <v>7.026451952569928</v>
+        <v>7.703272267336696</v>
       </c>
       <c r="D23">
-        <v>4.397263531778823</v>
+        <v>6.490035831300708</v>
       </c>
       <c r="E23">
-        <v>10.75841413685057</v>
+        <v>5.364987121495814</v>
       </c>
       <c r="F23">
-        <v>67.83237690245794</v>
+        <v>82.78419248579458</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.84138692654826</v>
+        <v>7.725451266498215</v>
       </c>
       <c r="K23">
-        <v>14.72117087259008</v>
+        <v>13.66248125302019</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.97961256764845</v>
+        <v>11.36051611453946</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.17766535043624</v>
+        <v>14.71625010872902</v>
       </c>
       <c r="C24">
-        <v>7.009876877325054</v>
+        <v>6.990391936356066</v>
       </c>
       <c r="D24">
-        <v>4.367219996569795</v>
+        <v>6.053591682498181</v>
       </c>
       <c r="E24">
-        <v>10.82578400763698</v>
+        <v>5.349222088856695</v>
       </c>
       <c r="F24">
-        <v>66.15177568946852</v>
+        <v>77.60325763443309</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.82376117132661</v>
+        <v>7.538775449711303</v>
       </c>
       <c r="K24">
-        <v>14.67868861401263</v>
+        <v>12.48420911408827</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.03718629237492</v>
+        <v>10.49797385652911</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.04153471362989</v>
+        <v>13.23648483220285</v>
       </c>
       <c r="C25">
-        <v>7.006761384674559</v>
+        <v>6.193130974682033</v>
       </c>
       <c r="D25">
-        <v>4.342941603911302</v>
+        <v>5.567147536153719</v>
       </c>
       <c r="E25">
-        <v>10.90693588967875</v>
+        <v>5.359368746185265</v>
       </c>
       <c r="F25">
-        <v>64.30190186393243</v>
+        <v>71.84428856709566</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.80803222904908</v>
+        <v>7.346990067641586</v>
       </c>
       <c r="K25">
-        <v>14.65226651243993</v>
+        <v>11.14742074172058</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.11636152672905</v>
+        <v>10.06708895937738</v>
       </c>
       <c r="N25">
         <v>0</v>
